--- a/title.xlsx
+++ b/title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurayusaku/Desktop/コナンタイトルジェネレーター/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7B7B3-5DE7-1041-BEF1-98C36D35F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F465E66-ED6D-694E-99E7-06057BD33226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77E95072-13E3-0741-866A-C427DB864B6A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{77E95072-13E3-0741-866A-C427DB864B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
   <si>
     <t>former</t>
     <phoneticPr fontId="1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ベイカーストリート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>迷宮</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">メイキュウ </t>
@@ -439,11 +435,1069 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>formerRuby</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>latterRuby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群青</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">グンジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢物語</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユメモノガダリ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">モノガタリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンタジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七彩</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シチサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>協奏曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キョウソウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンチェルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惨劇</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンゲキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラジティー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探求者</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンキュウシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サッチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破砕</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハカイ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">クダケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引鉄</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒキガネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新緑</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片時雨</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カタシグレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたしぐれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正鵠</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道標</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ミチシルベ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みちしるべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀世界</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ギンセカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ミョウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴェスパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瑠璃色</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ルリイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜃気楼</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シンキロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラージュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虹</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ニジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝台特急</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シンダイトッキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクスプレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅蓮</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">グレン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幻想</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イリュージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断罪</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンザイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紋章</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">モンショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霹靂</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘキレキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <rPh sb="0" eb="2">
+      <t>▪</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラストオーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残響</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザンキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフレイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刹那</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セツナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦騎姫</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>🌴</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヒメ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンヌダルク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道化師</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ドウケシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピエロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>邂逅</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輪舞曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">リンブキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怨敵</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンテキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎恋歌</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エンコンカ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">コイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ウタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラブソング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イツワリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生贄</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イケニエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サクリファイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亡霊達</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ボウレイタチ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">タチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王国</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オウコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大聖堂</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ダイセイドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャペル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速道路</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">コウソクドウロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイウェイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁断</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キンダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖域</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイイキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンクチュアリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰謀</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">インボウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦慄</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄紅</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウスベニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋桜</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コスモス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスモス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクソシスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハガネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錬金術師</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">レンキンジュツシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記憶</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キオク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半世紀へ</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハンセイキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜想曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヤソウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノクターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亡國</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ボウコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手紙</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隻眼</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セキガン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルキューレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦乙女</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イクサ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">オトメ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追憶</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツイオク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリズン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深淵</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンエン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白昼</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハクチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狂詩曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キョウシキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラプソディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歪曲</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イビツ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">キョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディストーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口先</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クチサキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矛盾</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ムジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラドックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詠唱</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エイショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重奏</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジュウソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンサンブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即興曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソッキョウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンプロンプチュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>練習曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">レンシュキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エチュード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哀歌</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖譚曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セイタンキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オラトリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追走曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ツイソウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カノン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交響曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウキョウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンフォニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜曲</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレナーデ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奏鳴曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウメイキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソナタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟歌</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フナウタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルカローラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前奏曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ゼンソウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前奏曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">プレリュード </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遁走曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">トンソウキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フーガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円舞曲</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">エンブキョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冥府</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">メイフ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星空</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホシゾラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宵</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暁</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エイユウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈落</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナラク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ネムリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大地</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダイチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掟</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オキテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒布</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不変</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フヘン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永劫</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エイゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄昏</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タソガレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶世</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼッセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘーラクレース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最期</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預言者</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヨゲンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>睦月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ムツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽春</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨウシュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キサラギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪消月</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ユキキエツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弥生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤヨイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卯月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皐月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水無月</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ミナヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フミヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナガツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神無月</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カンナヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霜月</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シモヅキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>師走</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シワス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アランカル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アランカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐古</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノスタルジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗黒卿</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アンコクキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディストピア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灼熱</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャクネツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闘技場</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">トウギジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロシアム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絡繰り人形</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カラクリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真実</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンジツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゥルース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想郷</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">リソウキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャングリラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -808,275 +1862,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28B9BEB-30FB-804A-81F8-06338E747C12}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>